--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="12390"/>
+    <workbookView windowWidth="20325" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>case_id</t>
+    <t>Case_id</t>
   </si>
   <si>
     <t>API_name</t>
@@ -47,16 +47,16 @@
     <t>登入</t>
   </si>
   <si>
-    <t>http://172.21.3.20/ngic-auth/sysAccount/login</t>
+    <t>http://172.21.3.20/ngy/ngic-auth/sysAccount/login</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>Json</t>
-  </si>
-  <si>
-    <t>{"accountName":"a0006","password":"K6sCa2Hd6acjNkAoeiYhPw==","encryptKey":"8npW4nbRthUlh6rRgUG4XwBLy9pNMLThSCEBOtXUZpU="}</t>
+    <t>{"Content-Type":"application/json;charset=utf-8"}</t>
+  </si>
+  <si>
+    <t>{"accountName":"a0006","password":"HYU4ZvU4kG+MSayrTxF4ww==","encryptKey":"yd3BEJvb9gToKoez50eAewBLy9pNMLThSCEBOtXUZpU="}</t>
   </si>
 </sst>
 </file>
@@ -64,12 +64,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -98,6 +135,52 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,21 +201,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,85 +224,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -231,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +437,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,7 +472,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,13 +492,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,175 +530,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1024,15 +1033,15 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="3" max="3" width="63.75" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="38.25" customWidth="1"/>
     <col min="6" max="6" width="38.75" customWidth="1"/>
     <col min="7" max="8" width="12.625" customWidth="1"/>
   </cols>
@@ -1066,7 +1075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="45" customHeight="1" spans="1:7">
+    <row r="2" ht="45" customHeight="1" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1088,10 +1097,11 @@
       <c r="G2">
         <v>200</v>
       </c>
+      <c r="H2" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://172.21.3.20/ngic-auth/sysAccount/login" tooltip="http://172.21.3.20/ngic-auth/sysAccount/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://172.21.3.20/ngy/ngic-auth/sysAccount/login" tooltip="http://172.21.3.20/ngy/ngic-auth/sysAccount/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,119 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jiekou\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA7ED08-58C1-41D9-AD20-BA9953D87FE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Case_id</t>
-  </si>
-  <si>
-    <t>API_name</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Request_Data_Type</t>
-  </si>
-  <si>
-    <t>Request_Data</t>
-  </si>
-  <si>
-    <t>Status_Code</t>
-  </si>
-  <si>
-    <t>Check_Point</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>登入</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>http://www.nangaoyun.com/ngy/sysAccount/login</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"accountName":"jsng0000","password":"pQR8pjMwOsQUBPSRv8TVpg==","encryptKey":"C3B4m+iyaiE8G5RlqOrK6wBLy9pNMLThSCEBOtXUZpU="}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Content-Type': 'application/json'}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="9">
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
+      <charset val="134"/>
       <family val="3"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -129,35 +98,31 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+  <cellXfs count="9">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -445,81 +410,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="3" max="3" width="63.75" customWidth="1"/>
-    <col min="5" max="5" width="44.25" customWidth="1"/>
-    <col min="6" max="6" width="38.75" customWidth="1"/>
-    <col min="7" max="8" width="12.625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="8.375"/>
+    <col customWidth="1" max="3" min="3" width="63.75"/>
+    <col customWidth="1" max="5" min="5" width="44.25"/>
+    <col customWidth="1" max="6" min="6" width="38.75"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="12.75"/>
+    <col customWidth="1" max="8" min="8" width="12.75"/>
+    <col customWidth="1" max="9" min="9" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Case_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>API_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Url</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Request_Data_Type</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Request_Data</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Status_Code</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>token</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>Check_Point</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="61.5" r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>登入</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>http://www.nangaoyun.com/ngy/sysAccount/login</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{"accountName":"JSNG0000","password":"7J60SuMJWD8foHRwMXBw6A==","encryptKey":"fzQOC7q2wVAtXcomh3gdggBLy9pNMLThSCEBOtXUZpU="}</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>200</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,94 +1,441 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView windowWidth="20325" windowHeight="11340"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Case_id</t>
+  </si>
+  <si>
+    <t>API_name</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Request_Data_Type</t>
+  </si>
+  <si>
+    <t>Request_Data</t>
+  </si>
+  <si>
+    <t>Status_Code</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>Check_Point</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>登入</t>
+  </si>
+  <si>
+    <t>http://172.21.3.4/ngy/sysAccount/login</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{"accountName":"a0006","password":"EB423NjUW1YKFdTY2/nkug==","encryptKey":"0iS7Hyh8NoxHezjfIPAY7ABLy9pNMLThSCEBOtXUZpU="}</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="9">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="12"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -96,33 +443,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,128 +1039,92 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8.375"/>
-    <col customWidth="1" max="3" min="3" width="63.75"/>
-    <col customWidth="1" max="5" min="5" width="44.25"/>
-    <col customWidth="1" max="6" min="6" width="38.75"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="12.75"/>
-    <col customWidth="1" max="8" min="8" width="12.75"/>
-    <col customWidth="1" max="9" min="9" width="12.625"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="63.75" customWidth="1"/>
+    <col min="5" max="5" width="44.25" customWidth="1"/>
+    <col min="6" max="6" width="38.75" customWidth="1"/>
+    <col min="7" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Case_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>API_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Request_Data_Type</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Request_Data</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Status_Code</t>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>token</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>Check_Point</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="61.5" r="2">
-      <c r="A2" t="n">
+    <row r="2" ht="61.5" customHeight="1" spans="1:9">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>登入</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>http://www.nangaoyun.com/ngy/sysAccount/login</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json'}</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>{"accountName":"JSNG0000","password":"7J60SuMJWD8foHRwMXBw6A==","encryptKey":"fzQOC7q2wVAtXcomh3gdggBLy9pNMLThSCEBOtXUZpU="}</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
         <v>200</v>
       </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://172.21.3.4/ngy/sysAccount/login" tooltip="http://172.21.3.4/ngy/sysAccount/login"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,88 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jiekou\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA55BA6C-7A21-4F79-A40F-2BBDBFECC3D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Case_id</t>
+  </si>
+  <si>
+    <t>API_name</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Request_Data_Type</t>
+  </si>
+  <si>
+    <t>Request_Data</t>
+  </si>
+  <si>
+    <t>Status_Code</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>Check_Point</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>登入</t>
+  </si>
+  <si>
+    <t>http://www.nangaoyun.com/ngy/sysAccount/login</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{"accountName":"JSNG0000","password":"7J60SuMJWD8foHRwMXBw6A==","encryptKey":"fzQOC7q2wVAtXcomh3gdggBLy9pNMLThSCEBOtXUZpU="}</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="15"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -98,31 +132,36 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -410,123 +449,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8.375"/>
-    <col customWidth="1" max="3" min="3" width="63.75"/>
-    <col customWidth="1" max="5" min="5" width="44.25"/>
-    <col customWidth="1" max="6" min="6" width="38.75"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="12.75"/>
-    <col customWidth="1" max="8" min="8" width="12.75"/>
-    <col customWidth="1" max="9" min="9" width="12.625"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="63.75" customWidth="1"/>
+    <col min="5" max="5" width="44.25" customWidth="1"/>
+    <col min="6" max="6" width="38.75" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Case_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>API_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Request_Data_Type</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Request_Data</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Status_Code</t>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>token</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>Check_Point</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="61.5" r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>登入</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>http://www.nangaoyun.com/ngy/sysAccount/login</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>{'Content-Type': 'application/json'}</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>{"accountName":"JSNG0000","password":"7J60SuMJWD8foHRwMXBw6A==","encryptKey":"fzQOC7q2wVAtXcomh3gdggBLy9pNMLThSCEBOtXUZpU="}</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
         <v>200</v>
       </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jiekou\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA55BA6C-7A21-4F79-A40F-2BBDBFECC3D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5094A4-ECFA-4237-9972-080E55663357}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="1365" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Case_id</t>
   </si>
@@ -53,22 +52,41 @@
     <t>error</t>
   </si>
   <si>
+    <t>http://www.nangaoyun.com/ngy/sysAccount/login</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>登入</t>
-  </si>
-  <si>
-    <t>http://www.nangaoyun.com/ngy/sysAccount/login</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nangaoyun.com/ngy/equipment/queryList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>post</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{'Content-Type': 'application/json'}</t>
-  </si>
-  <si>
-    <t>{"accountName":"JSNG0000","password":"7J60SuMJWD8foHRwMXBw6A==","encryptKey":"fzQOC7q2wVAtXcomh3gdggBLy9pNMLThSCEBOtXUZpU="}</t>
-  </si>
-  <si>
-    <t>pass</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageIndex":1,"pageSize":9,"equipmentNo":"","equipmentName":""}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accountName":"JSNG0000","password":"pAS/CVvX1IT2S37jJ4VHSA==","encryptKey":"cxgrDu6X5Qj5G3CjkBsR/gBLy9pNMLThSCEBOtXUZpU="}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -110,6 +128,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -137,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -147,6 +166,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -450,20 +474,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.75" customWidth="1"/>
     <col min="5" max="5" width="44.25" customWidth="1"/>
-    <col min="6" max="6" width="38.75" customWidth="1"/>
+    <col min="6" max="6" width="71.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -489,7 +514,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -503,34 +528,56 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>200</v>
       </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{2E54C5D7-9FEF-4D4E-A53E-4D3870717ADA}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jiekou\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5094A4-ECFA-4237-9972-080E55663357}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1365" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24930" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Case_id</t>
   </si>
@@ -52,48 +46,44 @@
     <t>error</t>
   </si>
   <si>
-    <t>http://www.nangaoyun.com/ngy/sysAccount/login</t>
+    <t>登入</t>
+  </si>
+  <si>
+    <t>http://172.21.3.20/ngy/ngic-auth/sysAccount/login</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
+    <t>{'Content-Type': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{"accountName":"a0006","password":"8yrL2xIKSnFSwLvYiY9NJw==","encryptKey":"wZS6/xBdNlJiraF9JbP3ZQBLy9pNMLThSCEBOtXUZpU="}</t>
+  </si>
+  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>登入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>设备列表</t>
   </si>
   <si>
     <t>http://www.nangaoyun.com/ngy/equipment/queryList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Content-Type': 'application/json'}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{"pageIndex":1,"pageSize":9,"equipmentNo":"","equipmentName":""}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"accountName":"JSNG0000","password":"pAS/CVvX1IT2S37jJ4VHSA==","encryptKey":"cxgrDu6X5Qj5G3CjkBsR/gBLy9pNMLThSCEBOtXUZpU="}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,18 +92,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -122,26 +119,340 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -149,41 +460,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -468,31 +1061,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="63.75" customWidth="1"/>
     <col min="5" max="5" width="44.25" customWidth="1"/>
-    <col min="6" max="6" width="71.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +1107,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -524,60 +1117,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="61.5" customHeight="1" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="G2">
         <v>200</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
+      <c r="H2" s="2"/>
+      <c r="I2" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{2E54C5D7-9FEF-4D4E-A53E-4D3870717ADA}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://172.21.3.20/ngy/ngic-auth/sysAccount/login" tooltip="http://172.21.3.20/ngy/ngic-auth/sysAccount/login"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://www.nangaoyun.com/ngy/equipment/queryList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -67,7 +67,7 @@
     <t>设备列表</t>
   </si>
   <si>
-    <t>http://www.nangaoyun.com/ngy/equipment/queryList</t>
+    <t>http://172.21.3.20/ngy/equipment/queryList</t>
   </si>
   <si>
     <t>{"pageIndex":1,"pageSize":9,"equipmentNo":"","equipmentName":""}</t>
@@ -78,19 +78,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,9 +115,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,22 +213,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,90 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +260,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,175 +278,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,17 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,30 +478,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -538,8 +496,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,19 +569,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,16 +590,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,112 +608,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1070,7 +1063,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1167,7 +1160,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://172.21.3.20/ngy/ngic-auth/sysAccount/login" tooltip="http://172.21.3.20/ngy/ngic-auth/sysAccount/login"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://www.nangaoyun.com/ngy/equipment/queryList"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://172.21.3.20/ngy/equipment/queryList" tooltip="http://172.21.3.20/ngy/equipment/queryList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="11340"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Case_id</t>
   </si>
@@ -31,59 +31,50 @@
     <t>Request_Data_Type</t>
   </si>
   <si>
+    <t>Token</t>
+  </si>
+  <si>
     <t>Request_Data</t>
   </si>
   <si>
     <t>Status_Code</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
     <t>Check_Point</t>
   </si>
   <si>
     <t>error</t>
   </si>
   <si>
-    <t>登入</t>
-  </si>
-  <si>
-    <t>http://172.21.3.20/ngy/ngic-auth/sysAccount/login</t>
+    <t>用户列表</t>
+  </si>
+  <si>
+    <t>http://192.168.40.23/mes/ngic-auth/sysUser/query/page</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{'Content-Type': 'application/json'}</t>
-  </si>
-  <si>
-    <t>{"accountName":"a0006","password":"8yrL2xIKSnFSwLvYiY9NJw==","encryptKey":"wZS6/xBdNlJiraF9JbP3ZQBLy9pNMLThSCEBOtXUZpU="}</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>设备列表</t>
-  </si>
-  <si>
-    <t>http://172.21.3.20/ngy/equipment/queryList</t>
-  </si>
-  <si>
-    <t>{"pageIndex":1,"pageSize":9,"equipmentNo":"","equipmentName":""}</t>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>5ceafba8eb3a812e5af8f74eb2d750fd</t>
+  </si>
+  <si>
+    <t>{"pageSize":15,"pageIndex":1}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,36 +85,38 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,66 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -205,8 +138,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,33 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,19 +236,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,19 +338,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,25 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,109 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,15 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,17 +445,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,22 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,218 +507,231 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1060,21 +1029,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="63.75" customWidth="1"/>
-    <col min="5" max="5" width="44.25" customWidth="1"/>
-    <col min="6" max="6" width="71.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="44.25" customWidth="1"/>
+    <col min="7" max="7" width="71.625" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1100,67 +1068,42 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="61.5" customHeight="1" spans="1:9">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
-        <v>200</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://172.21.3.20/ngy/ngic-auth/sysAccount/login" tooltip="http://172.21.3.20/ngy/ngic-auth/sysAccount/login"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://172.21.3.20/ngy/equipment/queryList" tooltip="http://172.21.3.20/ngy/equipment/queryList"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://192.168.40.23/mes/ngic-auth/sysUser/query/page"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
